--- a/docs/Disk Map CPM-65 Apple II.xlsx
+++ b/docs/Disk Map CPM-65 Apple II.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>CPM-65 Apple II Version</t>
   </si>
@@ -39,63 +39,18 @@
     <t>BOOT</t>
   </si>
   <si>
-    <t>$0800 &amp; $B600</t>
-  </si>
-  <si>
-    <t>01 .. 09</t>
-  </si>
-  <si>
-    <t>RWTS</t>
-  </si>
-  <si>
-    <t>$B700 .. $BFFF</t>
-  </si>
-  <si>
-    <t>10 .. 11</t>
-  </si>
-  <si>
     <t>BIOS</t>
   </si>
   <si>
-    <t>relocated to $B600 .. $B790</t>
-  </si>
-  <si>
-    <t>$B400 .. B590</t>
-  </si>
-  <si>
-    <t>12 .. 15</t>
-  </si>
-  <si>
-    <t>$B000 .. $B3FF</t>
-  </si>
-  <si>
-    <t>BDOS part 1</t>
-  </si>
-  <si>
-    <t>BDOS part 2</t>
-  </si>
-  <si>
     <t>0 .. 3</t>
   </si>
   <si>
-    <t>$AC00 .. AFFF</t>
-  </si>
-  <si>
     <t>4 .. 7</t>
   </si>
   <si>
     <t>CCP</t>
   </si>
   <si>
-    <t>$A800 .. ABFF</t>
-  </si>
-  <si>
-    <t>8 .. 15</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>0 .. 15</t>
   </si>
   <si>
@@ -106,6 +61,39 @@
   </si>
   <si>
     <t>files</t>
+  </si>
+  <si>
+    <t>1 .. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$0800 </t>
+  </si>
+  <si>
+    <t>7 .. 15</t>
+  </si>
+  <si>
+    <t>$A700 .. $AFFF</t>
+  </si>
+  <si>
+    <t>unused</t>
+  </si>
+  <si>
+    <t>$A100 .. $A3FF</t>
+  </si>
+  <si>
+    <t>$A400 .. $A6FF</t>
+  </si>
+  <si>
+    <t>$A800 .. $ABFF</t>
+  </si>
+  <si>
+    <t>BDOS</t>
+  </si>
+  <si>
+    <t>4 .. 15</t>
+  </si>
+  <si>
+    <t>$AC00 .. $B4FF</t>
   </si>
 </sst>
 </file>
@@ -548,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -599,124 +587,106 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
-        <v>8</v>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10">
-        <v>1</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/docs/Disk Map CPM-65 Apple II.xlsx
+++ b/docs/Disk Map CPM-65 Apple II.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>CPM-65 Apple II Version</t>
   </si>
@@ -45,9 +45,6 @@
     <t>0 .. 3</t>
   </si>
   <si>
-    <t>4 .. 7</t>
-  </si>
-  <si>
     <t>CCP</t>
   </si>
   <si>
@@ -63,27 +60,15 @@
     <t>files</t>
   </si>
   <si>
-    <t>1 .. 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">$0800 </t>
   </si>
   <si>
     <t>7 .. 15</t>
   </si>
   <si>
-    <t>$A700 .. $AFFF</t>
-  </si>
-  <si>
     <t>unused</t>
   </si>
   <si>
-    <t>$A100 .. $A3FF</t>
-  </si>
-  <si>
-    <t>$A400 .. $A6FF</t>
-  </si>
-  <si>
     <t>$A800 .. $ABFF</t>
   </si>
   <si>
@@ -94,6 +79,12 @@
   </si>
   <si>
     <t>$AC00 .. $B4FF</t>
+  </si>
+  <si>
+    <t>1 .. 6</t>
+  </si>
+  <si>
+    <t>$B700 .. $BFFF</t>
   </si>
 </sst>
 </file>
@@ -536,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -587,93 +578,85 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10">
-        <v>2</v>
+      <c r="A12" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
@@ -681,12 +664,6 @@
       <c r="B14" s="10"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/docs/Disk Map CPM-65 Apple II.xlsx
+++ b/docs/Disk Map CPM-65 Apple II.xlsx
@@ -75,9 +75,6 @@
     <t>BDOS</t>
   </si>
   <si>
-    <t>4 .. 15</t>
-  </si>
-  <si>
     <t>$AC00 .. $B4FF</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>$B700 .. $BFFF</t>
+  </si>
+  <si>
+    <t>4 .. 13</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -584,7 +584,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -620,13 +620,13 @@
     <row r="10" spans="1:4">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
